--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>556.7932783914222</v>
+        <v>3761.597931206359</v>
       </c>
       <c r="R2">
-        <v>556.7932783914222</v>
+        <v>33854.38138085724</v>
       </c>
       <c r="S2">
-        <v>0.07119177271590382</v>
+        <v>0.2259093923905733</v>
       </c>
       <c r="T2">
-        <v>0.07119177271590382</v>
+        <v>0.2259093923905733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>631.3568689363955</v>
+        <v>4003.301664277541</v>
       </c>
       <c r="R3">
-        <v>631.3568689363955</v>
+        <v>36029.71497849787</v>
       </c>
       <c r="S3">
-        <v>0.0807254980624008</v>
+        <v>0.2404253360068896</v>
       </c>
       <c r="T3">
-        <v>0.0807254980624008</v>
+        <v>0.2404253360068896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>151.0490927601944</v>
+        <v>1120.920608912028</v>
       </c>
       <c r="R4">
-        <v>151.0490927601944</v>
+        <v>10088.28548020825</v>
       </c>
       <c r="S4">
-        <v>0.01931318695475993</v>
+        <v>0.06731886243785148</v>
       </c>
       <c r="T4">
-        <v>0.01931318695475993</v>
+        <v>0.06731886243785148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>1748.429921356545</v>
+        <v>1907.153265377733</v>
       </c>
       <c r="R5">
-        <v>1748.429921356545</v>
+        <v>17164.3793883996</v>
       </c>
       <c r="S5">
-        <v>0.2235548279794363</v>
+        <v>0.1145374501094029</v>
       </c>
       <c r="T5">
-        <v>0.2235548279794363</v>
+        <v>0.1145374501094029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>1982.572857006283</v>
+        <v>2029.698543265223</v>
       </c>
       <c r="R6">
-        <v>1982.572857006283</v>
+        <v>18267.28688938701</v>
       </c>
       <c r="S6">
-        <v>0.2534924211665659</v>
+        <v>0.1218971227204037</v>
       </c>
       <c r="T6">
-        <v>0.2534924211665659</v>
+        <v>0.1218971227204037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>474.3210157613008</v>
+        <v>568.3136365481199</v>
       </c>
       <c r="R7">
-        <v>474.3210157613008</v>
+        <v>5114.82272893308</v>
       </c>
       <c r="S7">
-        <v>0.06064684194107071</v>
+        <v>0.03413107691674228</v>
       </c>
       <c r="T7">
-        <v>0.06064684194107071</v>
+        <v>0.03413107691674228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H8">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>946.4954825639211</v>
+        <v>1380.012263094733</v>
       </c>
       <c r="R8">
-        <v>946.4954825639211</v>
+        <v>12420.1103678526</v>
       </c>
       <c r="S8">
-        <v>0.1210192254223851</v>
+        <v>0.08287906829725664</v>
       </c>
       <c r="T8">
-        <v>0.1210192254223851</v>
+        <v>0.08287906829725664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H9">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>1073.246476790094</v>
+        <v>1468.685779449798</v>
       </c>
       <c r="R9">
-        <v>1073.246476790094</v>
+        <v>13218.17201504819</v>
       </c>
       <c r="S9">
-        <v>0.1372256494628007</v>
+        <v>0.08820451258111286</v>
       </c>
       <c r="T9">
-        <v>0.1372256494628007</v>
+        <v>0.08820451258111285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H10">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>256.7690550358935</v>
+        <v>411.23060320222</v>
       </c>
       <c r="R10">
-        <v>256.7690550358935</v>
+        <v>3701.07542881998</v>
       </c>
       <c r="S10">
-        <v>0.03283057629467666</v>
+        <v>0.02469717853976722</v>
       </c>
       <c r="T10">
-        <v>0.03283057629467666</v>
+        <v>0.02469717853976721</v>
       </c>
     </row>
   </sheetData>
